--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC80CDDE-A84C-4FA8-8C45-EF3A52AD85C4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +74,6 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -127,17 +119,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -269,9 +250,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,73 +260,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,23 +402,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +437,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,11 +612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,23 +632,23 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
@@ -735,25 +661,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="11">
         <v>0.05</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="12">
         <v>0.15</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="13">
         <v>0.3</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="14">
         <v>0.3</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="14">
         <v>0.2</v>
       </c>
       <c r="I5" s="2"/>
@@ -767,91 +693,91 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21">
-        <f>IF(C7&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C17)/C7)*C5,0), 0)</f>
+      <c r="C6" s="10">
+        <f t="shared" ref="C6:H6" si="0">IF(C7&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C17)/C7)*C5,0), 0)</f>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="D6" s="11">
-        <f>IF(D7&lt;&gt;0,IF(D5&lt;&gt;0,(SUM(D8:D17)/D7)*D5,0), 0)</f>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
         <v>0.14074999999999999</v>
       </c>
-      <c r="E6" s="11">
-        <f>IF(E7&lt;&gt;0,IF(E5&lt;&gt;0,(SUM(E8:E17)/E7)*E5,0), 0)</f>
-        <v>0.27</v>
-      </c>
-      <c r="F6" s="11">
-        <f>IF(F7&lt;&gt;0,IF(F5&lt;&gt;0,(SUM(F8:F17)/F7)*F5,0), 0)</f>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="11">
-        <f>IF(G7&lt;&gt;0,IF(G5&lt;&gt;0,(SUM(G8:G17)/G7)*G5,0), 0)</f>
-        <v>0.23399999999999999</v>
-      </c>
-      <c r="H6" s="11">
-        <f>IF(H7&lt;&gt;0,IF(H5&lt;&gt;0,(SUM(H8:H17)/H7)*H5,0), 0)</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="I6" s="14"/>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.84475</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+        <v>0.90874999999999995</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
-        <f t="shared" ref="C7:D7" si="0">COUNT(C8:C17)</f>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:D7" si="1">COUNT(C8:C17)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="10">
-        <f t="shared" si="0"/>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7" si="1">COUNT(E8:E17)</f>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7" si="2">COUNT(E8:E17)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7" si="3">COUNT(F8:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7" si="4">COUNT(G8:G17)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" ref="F7" si="2">COUNT(F8:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" ref="G7" si="3">COUNT(G8:G17)</f>
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" ref="H7" si="4">COUNT(H8:H17)</f>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7" si="5">COUNT(H8:H17)</f>
         <v>1</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>0.8</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>0.87</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="16">
         <v>0.8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="18">
+      <c r="F8" s="16"/>
+      <c r="G8" s="17">
         <v>0.76</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.8</v>
+      <c r="H8" s="16">
+        <v>0.95</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -859,149 +785,151 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="17">
+      <c r="C9" s="11"/>
+      <c r="D9" s="18">
         <v>0.76</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="8">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+      <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="8">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
+      <c r="B13" s="9">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="8">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="B14" s="9">
         <v>7</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
+      <c r="B15" s="9">
         <v>8</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+      <c r="B16" s="9">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
+      <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1055,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1067,7 +995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,16 +296,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,7 +616,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +626,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -702,11 +702,11 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.14074999999999999</v>
+        <v>0.12224999999999998</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0.27999999999999997</v>
+        <v>0.24</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
@@ -714,16 +714,16 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>0.25800000000000001</v>
+        <v>0.22799999999999998</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.90874999999999995</v>
+        <v>0.79025000000000001</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -738,11 +738,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7" si="2">COUNT(E8:E17)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7" si="3">COUNT(F8:F17)</f>
@@ -750,7 +750,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ref="G7" si="4">COUNT(G8:G17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ref="H7" si="5">COUNT(H8:H17)</f>
@@ -763,21 +763,21 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0.8</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0.87</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.8</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16">
         <v>0.76</v>
       </c>
-      <c r="H8" s="16">
-        <v>0.95</v>
+      <c r="H8" s="15">
+        <v>0.8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -789,16 +789,12 @@
         <v>2</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>0.76</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11">
-        <v>0.96</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -810,12 +806,8 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -829,9 +821,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -846,9 +836,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -863,9 +851,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
@@ -718,12 +718,12 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.79025000000000001</v>
+        <v>0.82524999999999993</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -769,15 +769,15 @@
       <c r="D8" s="16">
         <v>0.87</v>
       </c>
-      <c r="E8" s="15">
-        <v>0.8</v>
+      <c r="E8" s="16">
+        <v>0.95</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16">
         <v>0.76</v>
       </c>
       <c r="H8" s="15">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8857E-8EA2-4E21-9DE6-7CED44581AB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -62,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +93,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -252,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +313,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,6 +412,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -437,6 +464,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,11 +746,11 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.12224999999999998</v>
+        <v>0.13874999999999998</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0.28499999999999998</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
@@ -723,7 +767,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.82524999999999993</v>
+        <v>0.84924999999999995</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -738,11 +782,11 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7" si="2">COUNT(E8:E17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7" si="3">COUNT(F8:F17)</f>
@@ -792,7 +836,9 @@
       <c r="D9" s="17">
         <v>0.76</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -806,7 +852,9 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>0.92</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -821,7 +869,9 @@
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -836,7 +886,9 @@
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -851,7 +903,9 @@
         <v>6</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -969,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -981,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8857E-8EA2-4E21-9DE6-7CED44581AB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26377C2-7508-4019-9553-AF824EDD1D08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,10 +312,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,7 +660,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,8 +670,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.13874999999999998</v>
+        <v>0.13374999999999998</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
@@ -767,7 +767,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.84924999999999995</v>
+        <v>0.84424999999999994</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -836,7 +836,7 @@
       <c r="D9" s="17">
         <v>0.76</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>1</v>
       </c>
       <c r="F9" s="11"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -886,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="11"/>
@@ -903,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="11"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alundi1a\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26377C2-7508-4019-9553-AF824EDD1D08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,11 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +757,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>0.22799999999999998</v>
+        <v>0.22649999999999998</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
@@ -767,7 +766,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.84424999999999994</v>
+        <v>0.84275</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -794,7 +793,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ref="G7" si="4">COUNT(G8:G17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ref="H7" si="5">COUNT(H8:H17)</f>
@@ -840,7 +839,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>0.75</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1023,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1035,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alundi1a\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB5C77-CAD6-4E9B-86A0-F2E36E14F538}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +746,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.13374999999999998</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
@@ -757,16 +758,16 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>0.22649999999999998</v>
+        <v>0.23249999999999998</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.84275</v>
+        <v>0.86225000000000007</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -820,7 +821,7 @@
         <v>0.76</v>
       </c>
       <c r="H8" s="15">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -839,8 +840,8 @@
         <v>1</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11">
-        <v>0.75</v>
+      <c r="G9" s="17">
+        <v>0.79</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="2"/>
@@ -853,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="D10" s="17">
         <v>0.92</v>
       </c>
       <c r="E10" s="11"/>
@@ -870,8 +871,8 @@
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11">
-        <v>0.8</v>
+      <c r="D11" s="17">
+        <v>1</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -888,7 +889,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1024,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1036,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB5C77-CAD6-4E9B-86A0-F2E36E14F538}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079A5DD-52CD-4C02-A4A0-94243EBDBAB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0.29249999999999998</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
@@ -767,7 +767,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.86225000000000007</v>
+        <v>0.83225000000000005</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -837,7 +837,7 @@
         <v>0.76</v>
       </c>
       <c r="E9" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="17">

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079A5DD-52CD-4C02-A4A0-94243EBDBAB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14B2616-B356-405F-A21B-E02F1C09851F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +82,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,16 +299,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,7 +650,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,8 +660,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -742,11 +732,11 @@
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:H6" si="0">IF(C7&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C17)/C7)*C5,0), 0)</f>
-        <v>4.0000000000000008E-2</v>
+        <v>3.7500000000000006E-2</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.13125000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
@@ -762,12 +752,12 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>0.16600000000000001</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.83225000000000005</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -807,21 +797,21 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="18">
         <v>0.87</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="18">
         <v>0.95</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="16">
+      <c r="G8" s="18">
         <v>0.76</v>
       </c>
-      <c r="H8" s="15">
-        <v>0.83</v>
+      <c r="H8" s="18">
+        <v>0.7</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -833,14 +823,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>0.76</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>0.8</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>0.79</v>
       </c>
       <c r="H9" s="11"/>
@@ -854,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>0.92</v>
       </c>
       <c r="E10" s="11"/>
@@ -871,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
       <c r="E11" s="11"/>
@@ -888,8 +878,8 @@
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="18">
-        <v>0.7</v>
+      <c r="D12" s="16">
+        <v>0.77</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -905,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>1</v>
       </c>
       <c r="E13" s="11"/>

--- a/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
+++ b/CS-4375.0U2-Machine-Learning/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\CS-4375.0U2-Machine-Learning\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14B2616-B356-405F-A21B-E02F1C09851F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03AF120-1D91-48BA-BE1E-F64E78286606}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -302,10 +302,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,7 +650,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,8 +660,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -752,12 +752,12 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>0.13999999999999999</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="2">
         <f>SUM(C6:H6)</f>
-        <v>0.80549999999999999</v>
+        <v>0.8175</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -797,21 +797,21 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>0.75</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>0.87</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>0.95</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>0.76</v>
       </c>
-      <c r="H8" s="18">
-        <v>0.7</v>
+      <c r="H8" s="17">
+        <v>0.76</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
